--- a/biology/Microbiologie/Phyllopharyngea/Phyllopharyngea.xlsx
+++ b/biology/Microbiologie/Phyllopharyngea/Phyllopharyngea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Phyllopharyngea sont une classe de ciliés du sous-embranchement des Intramacronucleata.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-taxons</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (1er avril 2022)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (1er avril 2022) :
 Sous-classe Chonotrichia Wallengren, 1895
 Ordre Cryptogemmida
 Ordre Exogemmida
@@ -556,7 +570,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classe des Phyllopharyngea a été créée en 1974 par de Puytorac (d), Batisse (d), Bohatier (d), Corliss, Deroux (d), Didier (d), Dragesco, Fryd-Versavel (d), Grain (d), Grolière (d), Hovasse (d), Iftode (d), Laval (d), Roque (d), Savoie (d) et Tuffrau (d).
 </t>
@@ -587,9 +603,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>P. de Puytorac, A. Batisse, J. Bohatier, J.O. Corliss,, G. Deroux, P. Didier, J. Dragesco, G. Fryd-Versavel, J. Grain, C.-A. Grolière, R. Hovasse, F. Iftode, M. Laval, M. Rogue, A. Savoie et M. Tuffrau, 1974, « Proposition d'une classification du phylum Ciliophora Doflein, 1901 », Comptes Rendus de l'Académie de Sciences, Paris, vol. 278, p. 2799-2802.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>P. de Puytorac, A. Batisse, J. Bohatier, J.O. Corliss G. Deroux, P. Didier, J. Dragesco, G. Fryd-Versavel, J. Grain, C.-A. Grolière, R. Hovasse, F. Iftode, M. Laval, M. Rogue, A. Savoie et M. Tuffrau, 1974, « Proposition d'une classification du phylum Ciliophora Doflein, 1901 », Comptes Rendus de l'Académie de Sciences, Paris, vol. 278, p. 2799-2802.</t>
         </is>
       </c>
     </row>
